--- a/design_info/MK3_Basic/components/MK3_basic_component_listing_v1.xlsx
+++ b/design_info/MK3_Basic/components/MK3_basic_component_listing_v1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Business\(2) Refills\Code\Github\refill_station_repository\design_info\MK3_Basic\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24585767-FD64-4FF5-BB7B-533D47AB44A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A8C94E-C9FE-4BB4-A46A-A28203634120}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="248">
   <si>
     <t>Item</t>
   </si>
@@ -467,21 +467,9 @@
     <t>Through hole DC DC converter</t>
   </si>
   <si>
-    <t>Murata 	DC DC CONVERTER 5V 8W</t>
-  </si>
-  <si>
     <t>Voltage step down to rpi pico</t>
   </si>
   <si>
-    <t>OKI-78SR-5/1.5-W36-C</t>
-  </si>
-  <si>
-    <t>Murata Power Solutions Inc.</t>
-  </si>
-  <si>
-    <t>796-2141</t>
-  </si>
-  <si>
     <t>2.54mm SIL Socket</t>
   </si>
   <si>
@@ -500,7 +488,296 @@
     <t>D01-9972042</t>
   </si>
   <si>
-    <t>Matrix board</t>
+    <t>Above here is components for the MK2 !</t>
+  </si>
+  <si>
+    <t>ST N-channel 100V - 0.028Ω - 40A TO-220 Low gate charge STripFET™ Power MOSFET</t>
+  </si>
+  <si>
+    <t>Switching pump on</t>
+  </si>
+  <si>
+    <t>486-2290</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>STP40NF10L</t>
+  </si>
+  <si>
+    <t>N-channel 3.3V logic MOSFET TO-220 package</t>
+  </si>
+  <si>
+    <t>Resistor (100 Ohm)</t>
+  </si>
+  <si>
+    <t>Resistor (10 KOhm)</t>
+  </si>
+  <si>
+    <t>Radial 330nF Multilayer Ceramic Capacitor MLCC 50V dc Through Hole</t>
+  </si>
+  <si>
+    <t>(1) Capacitance across motor terminals (2) capacitance for raspberry pi pico</t>
+  </si>
+  <si>
+    <t>FG28X7R1H334KRT00</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>194-0544</t>
+  </si>
+  <si>
+    <t>Decoupling ceramic capacitor (330 nF)</t>
+  </si>
+  <si>
+    <t>Smoothing electrolytic capacitor (100 uF)</t>
+  </si>
+  <si>
+    <t>RS PRO 220μF Electrolytic Capacitor 25V dc, Through Hole</t>
+  </si>
+  <si>
+    <t>711-1097</t>
+  </si>
+  <si>
+    <t>capacitance for raspberry pi pico</t>
+  </si>
+  <si>
+    <t>Potentiometer</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>POT 50K OHM 1/20W LINEAR</t>
+  </si>
+  <si>
+    <t>P3P5503-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVU-E2AF25B54	</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>For speed control</t>
+  </si>
+  <si>
+    <t>XP Power Through Hole Switching Regulator, 3.3V dc Output Voltage, 7 → 28V dc Input Voltage, 1A Output Current</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>RS PRO 1.5A Axial FF Non-Resettable Wire Ended Fuse, 125V ac/dcRS PRO 1.5A Axial FF Non-Resettable Wire Ended Fuse, 125V ac/dc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circuit protection (Raspberry pi) </t>
+  </si>
+  <si>
+    <t>764-9472</t>
+  </si>
+  <si>
+    <t>Plastic screws M3</t>
+  </si>
+  <si>
+    <t>Plastic stand offs M3</t>
+  </si>
+  <si>
+    <t>134-6946</t>
+  </si>
+  <si>
+    <t>XP Power</t>
+  </si>
+  <si>
+    <t>TR10S3V3</t>
+  </si>
+  <si>
+    <t>Murata Power Solutions Inc. OKI-78SR-5/1.5-W36-C</t>
+  </si>
+  <si>
+    <t>Plastic Nuts M3</t>
+  </si>
+  <si>
+    <t>urth Elektronik</t>
+  </si>
+  <si>
+    <t>185-4384</t>
+  </si>
+  <si>
+    <t>Wurth Elektronik, M3 Pan Head, 4mm Nylon Cross</t>
+  </si>
+  <si>
+    <t>RS PRO Nylon Hex Standoff Male/Female, 6mm, M3 x M3</t>
+  </si>
+  <si>
+    <t>PCB mounting</t>
+  </si>
+  <si>
+    <t>382-967</t>
+  </si>
+  <si>
+    <t>RS PRO Nylon Hex Nut, Plain, M3</t>
+  </si>
+  <si>
+    <t>525-701</t>
+  </si>
+  <si>
+    <t>Raspberry pi pico</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>Development board</t>
+  </si>
+  <si>
+    <t>Panel button</t>
+  </si>
+  <si>
+    <t>On/Off pump</t>
+  </si>
+  <si>
+    <t>175-8967</t>
+  </si>
+  <si>
+    <t>RS PRO 175-9049</t>
+  </si>
+  <si>
+    <t>RS PRO Double Pole Double Throw (DPDT) Momentary Blue LED Push Button Switch, IP65, 22.2 (Dia.)mm, Panel Mount, 250V ac</t>
+  </si>
+  <si>
+    <t>Alternative potentiometer (1 of)</t>
+  </si>
+  <si>
+    <t>Low value resistor for led</t>
+  </si>
+  <si>
+    <t>For calc see: https://www.evilmadscientist.com/2012/resistors-for-leds/</t>
+  </si>
+  <si>
+    <t>Remember to add the wire resistance based on length and csa</t>
+  </si>
+  <si>
+    <t>Connector so that the system can interface with a simple printer</t>
+  </si>
+  <si>
+    <t>To order</t>
+  </si>
+  <si>
+    <t>M5 x 6 countersunk machine screws</t>
+  </si>
+  <si>
+    <t>555 circuit components</t>
+  </si>
+  <si>
+    <t>M4 x 40 countersunk machine screws</t>
+  </si>
+  <si>
+    <t>Female power supply connectors</t>
+  </si>
+  <si>
+    <t>Above here are components for the MK3! (Raspberry Pi Pico)</t>
+  </si>
+  <si>
+    <t>Below here are components for the MK3!  (Raspberry Pi Pico)</t>
+  </si>
+  <si>
+    <t>Below here are additional components for the 555 pwm circuit electronics</t>
+  </si>
+  <si>
+    <t>ON Semi 100V 300mA, Diode, 2-Pin DO-35 1N4148-T26A</t>
+  </si>
+  <si>
+    <t>Diode for 555 circuit</t>
+  </si>
+  <si>
+    <t>Diode (for 555 circuit)</t>
+  </si>
+  <si>
+    <t>186-7593</t>
+  </si>
+  <si>
+    <t>1N4148-T26A</t>
+  </si>
+  <si>
+    <t>Selection of resistors (check which ones you haven't got!)</t>
+  </si>
+  <si>
+    <t>555 timer</t>
+  </si>
+  <si>
+    <t>Capacitor (1nF)</t>
+  </si>
+  <si>
+    <t>Capacitor (100nF)</t>
+  </si>
+  <si>
+    <t>Resistor (1K)</t>
+  </si>
+  <si>
+    <t>221-5535</t>
+  </si>
+  <si>
+    <t>Texas Instruments NE555P, Timer Circuit, 8-Pin PDIP</t>
+  </si>
+  <si>
+    <t>555 timer for PWM</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>NE555P</t>
+  </si>
+  <si>
+    <t>194-3479</t>
+  </si>
+  <si>
+    <t>Timing capacitor for 555 timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+EPCOS</t>
+  </si>
+  <si>
+    <t>B32529C6102K000</t>
+  </si>
+  <si>
+    <t>EPCOS 1nF Polyester Capacitor PET 200 V ac, 400 V dc ±10%, Through Hole</t>
+  </si>
+  <si>
+    <t>Capacitor for 555 voltage smoothing</t>
+  </si>
+  <si>
+    <t>EPCOS 100nF Polyester Capacitor PET 40 V ac, 63 V dc ±5%, Through Hole</t>
+  </si>
+  <si>
+    <t>334-221</t>
+  </si>
+  <si>
+    <t>Resistor (100 ohm)</t>
+  </si>
+  <si>
+    <t>Have already</t>
+  </si>
+  <si>
+    <t>Vishay 100Ω Metal Film Resistor 0.4W ±5% SFR2500001000JA500</t>
+  </si>
+  <si>
+    <t>Resistor for motor transistor</t>
+  </si>
+  <si>
+    <t>165-0763</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>SFR2500001000JA500</t>
   </si>
 </sst>
 </file>
@@ -544,7 +821,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,6 +846,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -584,7 +873,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -596,12 +885,16 @@
     <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -884,19 +1177,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C78D22F-9D3B-47B6-B421-4D329DA20D8D}">
-  <dimension ref="B1:Z53"/>
+  <dimension ref="B1:Z94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
     <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
@@ -915,10 +1208,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
@@ -2362,7 +2655,7 @@
     <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
         <v>138</v>
@@ -2376,7 +2669,7 @@
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
         <v>137</v>
@@ -2431,43 +2724,44 @@
         <v>135</v>
       </c>
     </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>151</v>
+      </c>
+    </row>
     <row r="48" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>142</v>
       </c>
       <c r="W48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="X48" s="12">
+      <c r="X48" s="11">
         <f>SUM(X3:X47)</f>
         <v>56.02863</v>
       </c>
-      <c r="Y48" s="12">
+      <c r="Y48" s="11">
         <f>SUM(Y3:Y47)</f>
         <v>23.708629999999992</v>
       </c>
     </row>
-    <row r="51" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>143</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F51" t="s">
-        <v>145</v>
+        <v>197</v>
+      </c>
+      <c r="E51" t="s">
+        <v>199</v>
       </c>
       <c r="G51" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="H51" t="s">
-        <v>148</v>
-      </c>
-      <c r="I51" t="s">
-        <v>147</v>
-      </c>
-      <c r="J51" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>17</v>
@@ -2493,8 +2787,8 @@
       <c r="T51" t="s">
         <v>30</v>
       </c>
-      <c r="U51" s="11">
-        <v>4.22</v>
+      <c r="U51" s="10">
+        <v>3.6</v>
       </c>
       <c r="V51">
         <v>1</v>
@@ -2502,34 +2796,54 @@
       <c r="W51" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="X51" s="2">
+        <f>U51/(V51/N51)</f>
+        <v>3.6</v>
+      </c>
+      <c r="Y51" s="2">
+        <f t="shared" ref="Y51:Y53" si="3">X51</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B52" s="13">
+        <v>2</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E52" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="F52" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G52" t="s">
         <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="I52" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="J52" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="L52" t="s">
+        <v>187</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="N52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O52" t="s">
         <v>30</v>
@@ -2549,20 +2863,1155 @@
       <c r="T52" t="s">
         <v>30</v>
       </c>
-      <c r="U52" s="11">
+      <c r="U52" s="10">
+        <v>2.33</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="W52" t="s">
+        <v>30</v>
+      </c>
+      <c r="X52" s="2">
+        <f>U52/(V52/N52)</f>
+        <v>2.33</v>
+      </c>
+      <c r="Y52" s="2">
+        <f t="shared" si="3"/>
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53" t="s">
+        <v>145</v>
+      </c>
+      <c r="F53" t="s">
+        <v>147</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" t="s">
+        <v>148</v>
+      </c>
+      <c r="I53" t="s">
+        <v>149</v>
+      </c>
+      <c r="J53" t="s">
+        <v>150</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>30</v>
+      </c>
+      <c r="P53" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>42</v>
+      </c>
+      <c r="R53" t="s">
+        <v>36</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53" t="s">
+        <v>30</v>
+      </c>
+      <c r="U53" s="10">
         <f>1.49/5</f>
         <v>0.29799999999999999</v>
       </c>
-      <c r="V52">
-        <v>1</v>
-      </c>
-      <c r="W52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
+      <c r="V53">
+        <v>1</v>
+      </c>
+      <c r="W53" t="s">
+        <v>30</v>
+      </c>
+      <c r="X53" s="2">
+        <f>U53/(V53/N53)</f>
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="Y53" s="2">
+        <f t="shared" si="3"/>
+        <v>0.59599999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" t="s">
+        <v>153</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" t="s">
+        <v>154</v>
+      </c>
+      <c r="I54" t="s">
         <v>155</v>
+      </c>
+      <c r="J54" t="s">
+        <v>156</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>30</v>
+      </c>
+      <c r="P54" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>42</v>
+      </c>
+      <c r="R54" t="s">
+        <v>36</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54" t="s">
+        <v>30</v>
+      </c>
+      <c r="U54" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54" t="s">
+        <v>30</v>
+      </c>
+      <c r="X54" s="2">
+        <f>U54/(V54/N54)</f>
+        <v>0.5</v>
+      </c>
+      <c r="Y54" s="2">
+        <f>X54</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B57" s="13">
+        <v>20</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" t="s">
+        <v>164</v>
+      </c>
+      <c r="I57" t="s">
+        <v>163</v>
+      </c>
+      <c r="J57" t="s">
+        <v>162</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>30</v>
+      </c>
+      <c r="P57" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>42</v>
+      </c>
+      <c r="R57" t="s">
+        <v>36</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57" t="s">
+        <v>30</v>
+      </c>
+      <c r="U57" s="10">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="W57" t="s">
+        <v>30</v>
+      </c>
+      <c r="X57" s="2">
+        <f t="shared" ref="X57:X58" si="4">U57/(V57/N57)</f>
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="Y57" s="2">
+        <f t="shared" ref="Y57:Y58" si="5">X57</f>
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>166</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F58" t="s">
+        <v>169</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I58" t="s">
+        <v>87</v>
+      </c>
+      <c r="J58" t="s">
+        <v>168</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>30</v>
+      </c>
+      <c r="P58" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>42</v>
+      </c>
+      <c r="R58" t="s">
+        <v>36</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58" t="s">
+        <v>30</v>
+      </c>
+      <c r="U58" s="10">
+        <v>6.2E-2</v>
+      </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58" t="s">
+        <v>30</v>
+      </c>
+      <c r="X58" s="2">
+        <f t="shared" si="4"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="Y58" s="2">
+        <f t="shared" si="5"/>
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" t="s">
+        <v>107</v>
+      </c>
+      <c r="I59" t="s">
+        <v>106</v>
+      </c>
+      <c r="J59" t="s">
+        <v>105</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" t="s">
+        <v>126</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
+        <v>30</v>
+      </c>
+      <c r="P59" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>42</v>
+      </c>
+      <c r="R59" t="s">
+        <v>36</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59" t="s">
+        <v>30</v>
+      </c>
+      <c r="U59" s="2">
+        <v>0.224</v>
+      </c>
+      <c r="V59">
+        <v>10</v>
+      </c>
+      <c r="W59" t="s">
+        <v>30</v>
+      </c>
+      <c r="X59" s="2">
+        <f t="shared" ref="X59:X64" si="6">U59/(V59/N59)</f>
+        <v>2.24E-2</v>
+      </c>
+      <c r="Y59" s="2">
+        <f t="shared" ref="Y59:Y65" si="7">X59</f>
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" t="s">
+        <v>172</v>
+      </c>
+      <c r="F60" t="s">
+        <v>176</v>
+      </c>
+      <c r="G60" t="s">
+        <v>171</v>
+      </c>
+      <c r="H60" t="s">
+        <v>173</v>
+      </c>
+      <c r="I60" t="s">
+        <v>175</v>
+      </c>
+      <c r="J60" t="s">
+        <v>174</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>30</v>
+      </c>
+      <c r="P60" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>42</v>
+      </c>
+      <c r="R60" t="s">
+        <v>36</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60" t="s">
+        <v>30</v>
+      </c>
+      <c r="U60" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="V60">
+        <v>1</v>
+      </c>
+      <c r="W60" t="s">
+        <v>30</v>
+      </c>
+      <c r="X60" s="2">
+        <f t="shared" si="6"/>
+        <v>0.51</v>
+      </c>
+      <c r="Y60" s="2">
+        <f t="shared" si="7"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>178</v>
+      </c>
+      <c r="E61" t="s">
+        <v>179</v>
+      </c>
+      <c r="F61" t="s">
+        <v>180</v>
+      </c>
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" t="s">
+        <v>181</v>
+      </c>
+      <c r="I61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J61" t="s">
+        <v>181</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>30</v>
+      </c>
+      <c r="P61" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>42</v>
+      </c>
+      <c r="R61" t="s">
+        <v>36</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61" t="s">
+        <v>30</v>
+      </c>
+      <c r="U61" s="2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61" t="s">
+        <v>30</v>
+      </c>
+      <c r="X61" s="2">
+        <f t="shared" si="6"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="Y61" s="2">
+        <f t="shared" si="7"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" t="s">
+        <v>192</v>
+      </c>
+      <c r="F62" t="s">
+        <v>193</v>
+      </c>
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" t="s">
+        <v>194</v>
+      </c>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+      <c r="J62" t="s">
+        <v>194</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>30</v>
+      </c>
+      <c r="P62" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>42</v>
+      </c>
+      <c r="R62" t="s">
+        <v>36</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62" t="s">
+        <v>30</v>
+      </c>
+      <c r="U62" s="2">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
+      <c r="W62" t="s">
+        <v>30</v>
+      </c>
+      <c r="X62" s="2">
+        <f t="shared" si="6"/>
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="Y62" s="2">
+        <f t="shared" si="7"/>
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>182</v>
+      </c>
+      <c r="E63" t="s">
+        <v>191</v>
+      </c>
+      <c r="F63" t="s">
+        <v>193</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I63" t="s">
+        <v>189</v>
+      </c>
+      <c r="J63">
+        <v>97790403111</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63" t="s">
+        <v>30</v>
+      </c>
+      <c r="P63" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>42</v>
+      </c>
+      <c r="R63" t="s">
+        <v>36</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63" t="s">
+        <v>30</v>
+      </c>
+      <c r="U63" s="2">
+        <v>0.185</v>
+      </c>
+      <c r="V63">
+        <v>1</v>
+      </c>
+      <c r="W63" t="s">
+        <v>30</v>
+      </c>
+      <c r="X63" s="2">
+        <f t="shared" si="6"/>
+        <v>0.74</v>
+      </c>
+      <c r="Y63" s="2">
+        <f t="shared" si="7"/>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" t="s">
+        <v>195</v>
+      </c>
+      <c r="F64" t="s">
+        <v>193</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" t="s">
+        <v>196</v>
+      </c>
+      <c r="I64" t="s">
+        <v>87</v>
+      </c>
+      <c r="J64" t="s">
+        <v>196</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64" t="s">
+        <v>30</v>
+      </c>
+      <c r="P64" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>42</v>
+      </c>
+      <c r="R64" t="s">
+        <v>36</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64" t="s">
+        <v>30</v>
+      </c>
+      <c r="U64" s="2">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="V64">
+        <v>50</v>
+      </c>
+      <c r="W64" t="s">
+        <v>30</v>
+      </c>
+      <c r="X64" s="2">
+        <f t="shared" si="6"/>
+        <v>0.38479999999999998</v>
+      </c>
+      <c r="Y64" s="2">
+        <f t="shared" si="7"/>
+        <v>0.38479999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>200</v>
+      </c>
+      <c r="E65" t="s">
+        <v>204</v>
+      </c>
+      <c r="F65" t="s">
+        <v>201</v>
+      </c>
+      <c r="G65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" t="s">
+        <v>202</v>
+      </c>
+      <c r="I65" t="s">
+        <v>87</v>
+      </c>
+      <c r="J65" t="s">
+        <v>202</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" t="s">
+        <v>203</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>30</v>
+      </c>
+      <c r="P65" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>42</v>
+      </c>
+      <c r="R65" t="s">
+        <v>36</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65" t="s">
+        <v>30</v>
+      </c>
+      <c r="U65" s="2">
+        <v>2.87</v>
+      </c>
+      <c r="V65">
+        <v>1</v>
+      </c>
+      <c r="W65" t="s">
+        <v>30</v>
+      </c>
+      <c r="X65" s="2">
+        <v>2.77</v>
+      </c>
+      <c r="Y65" s="2">
+        <f t="shared" si="7"/>
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>206</v>
+      </c>
+      <c r="E67" t="s">
+        <v>207</v>
+      </c>
+      <c r="F67" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C77" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B80" s="15">
+        <v>100</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" t="s">
+        <v>220</v>
+      </c>
+      <c r="E80" t="s">
+        <v>218</v>
+      </c>
+      <c r="F80" t="s">
+        <v>219</v>
+      </c>
+      <c r="G80" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" t="s">
+        <v>221</v>
+      </c>
+      <c r="I80" t="s">
+        <v>106</v>
+      </c>
+      <c r="J80" t="s">
+        <v>222</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>30</v>
+      </c>
+      <c r="P80" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>42</v>
+      </c>
+      <c r="R80" t="s">
+        <v>36</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80" t="s">
+        <v>30</v>
+      </c>
+      <c r="U80" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V80">
+        <v>1</v>
+      </c>
+      <c r="W80" t="s">
+        <v>30</v>
+      </c>
+      <c r="X80" s="2">
+        <f t="shared" ref="X80" si="8">U80/(V80/N80)</f>
+        <v>0.03</v>
+      </c>
+      <c r="Y80" s="2">
+        <f t="shared" ref="Y80" si="9">X80</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="81" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>50</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81" t="s">
+        <v>224</v>
+      </c>
+      <c r="E81" t="s">
+        <v>229</v>
+      </c>
+      <c r="F81" t="s">
+        <v>230</v>
+      </c>
+      <c r="G81" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" t="s">
+        <v>228</v>
+      </c>
+      <c r="I81" t="s">
+        <v>231</v>
+      </c>
+      <c r="J81" t="s">
+        <v>232</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81" t="s">
+        <v>30</v>
+      </c>
+      <c r="P81" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>42</v>
+      </c>
+      <c r="R81" t="s">
+        <v>36</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81" t="s">
+        <v>30</v>
+      </c>
+      <c r="U81" s="2">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="V81">
+        <v>1</v>
+      </c>
+      <c r="W81" t="s">
+        <v>30</v>
+      </c>
+      <c r="X81" s="2">
+        <f t="shared" ref="X81" si="10">U81/(V81/N81)</f>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="Y81" s="2">
+        <f t="shared" ref="Y81" si="11">X81</f>
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>20</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82" t="s">
+        <v>225</v>
+      </c>
+      <c r="E82" t="s">
+        <v>237</v>
+      </c>
+      <c r="F82" t="s">
+        <v>234</v>
+      </c>
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" t="s">
+        <v>233</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="J82" t="s">
+        <v>236</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L82" t="s">
+        <v>19</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82" t="s">
+        <v>30</v>
+      </c>
+      <c r="P82" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>42</v>
+      </c>
+      <c r="R82" t="s">
+        <v>36</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82" t="s">
+        <v>30</v>
+      </c>
+      <c r="U82" s="2">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="V82">
+        <v>1</v>
+      </c>
+      <c r="W82" t="s">
+        <v>30</v>
+      </c>
+      <c r="X82" s="2">
+        <f t="shared" ref="X82" si="12">U82/(V82/N82)</f>
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="Y82" s="2">
+        <f t="shared" ref="Y82" si="13">X82</f>
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>20</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" t="s">
+        <v>226</v>
+      </c>
+      <c r="E83" t="s">
+        <v>239</v>
+      </c>
+      <c r="F83" t="s">
+        <v>238</v>
+      </c>
+      <c r="G83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" t="s">
+        <v>240</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L83" t="s">
+        <v>19</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s">
+        <v>30</v>
+      </c>
+      <c r="P83" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>42</v>
+      </c>
+      <c r="R83" t="s">
+        <v>36</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83" t="s">
+        <v>30</v>
+      </c>
+      <c r="U83" s="2">
+        <v>0.109</v>
+      </c>
+      <c r="V83">
+        <v>1</v>
+      </c>
+      <c r="W83" t="s">
+        <v>30</v>
+      </c>
+      <c r="X83" s="2">
+        <f t="shared" ref="X83" si="14">U83/(V83/N83)</f>
+        <v>0.109</v>
+      </c>
+      <c r="Y83" s="2">
+        <f t="shared" ref="Y83" si="15">X83</f>
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="84" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C84" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D84" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C85" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D85" t="s">
+        <v>241</v>
+      </c>
+      <c r="E85" t="s">
+        <v>243</v>
+      </c>
+      <c r="F85" t="s">
+        <v>244</v>
+      </c>
+      <c r="G85" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" t="s">
+        <v>245</v>
+      </c>
+      <c r="I85" t="s">
+        <v>246</v>
+      </c>
+      <c r="J85" t="s">
+        <v>247</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="90" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C91" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D91" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C92" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D92" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="94" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C94" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D94" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2589,10 +4038,31 @@
     <hyperlink ref="M29" r:id="rId17" xr:uid="{CFB87BAF-51BB-4039-BC11-0A108E4AB94A}"/>
     <hyperlink ref="K9" r:id="rId18" xr:uid="{FB11998A-BA0D-45E7-8E5C-73E804D51D19}"/>
     <hyperlink ref="K11" r:id="rId19" xr:uid="{843C87F3-B5F3-47F4-A5B7-45C7D26FEF3C}"/>
-    <hyperlink ref="K51" r:id="rId20" xr:uid="{347E1990-7949-44B3-AAF3-402F3EF54343}"/>
-    <hyperlink ref="K52" r:id="rId21" xr:uid="{3A9771D3-B627-4512-80C2-9638D2CC85A4}"/>
+    <hyperlink ref="K53" r:id="rId20" xr:uid="{3A9771D3-B627-4512-80C2-9638D2CC85A4}"/>
+    <hyperlink ref="K54" r:id="rId21" xr:uid="{77A9D6DB-0251-4A64-AFC9-297E1ABD0E4E}"/>
+    <hyperlink ref="K57" r:id="rId22" xr:uid="{679DE8D8-4A9B-4582-B934-557FCF999C3A}"/>
+    <hyperlink ref="K58" r:id="rId23" xr:uid="{5A0FD6CA-94E0-4D7A-AB63-9BBD9E466E2E}"/>
+    <hyperlink ref="K59" r:id="rId24" xr:uid="{63B3AB93-34A4-45CB-91C1-AF4CE7D7D1D6}"/>
+    <hyperlink ref="M59" r:id="rId25" xr:uid="{D69A7F4C-C875-482D-B72B-6A3F5F94A73A}"/>
+    <hyperlink ref="K60" r:id="rId26" xr:uid="{33A9E282-395B-40AE-BD76-A69C741B7231}"/>
+    <hyperlink ref="K61" r:id="rId27" xr:uid="{59D2E8A1-C8E7-43F0-958D-CD0305006F3A}"/>
+    <hyperlink ref="K52" r:id="rId28" xr:uid="{733115EC-838F-4AA0-AAC6-C697996A0819}"/>
+    <hyperlink ref="M52" r:id="rId29" xr:uid="{845247C8-3D99-41D6-9223-4D9A9AE12FC7}"/>
+    <hyperlink ref="K63" r:id="rId30" xr:uid="{82B43D08-9F20-47DE-8683-56F9B3EF5C3D}"/>
+    <hyperlink ref="K62" r:id="rId31" xr:uid="{0ADFD8A3-5909-4AD6-BB55-B572B0484419}"/>
+    <hyperlink ref="K64" r:id="rId32" xr:uid="{FAD545D5-6851-4630-AF4B-54DFEE83DC47}"/>
+    <hyperlink ref="K51" r:id="rId33" xr:uid="{A2BB297D-B081-4A4E-8C90-2B5F7C05DDD8}"/>
+    <hyperlink ref="K65" r:id="rId34" xr:uid="{485D22B1-3CC5-4166-88F7-D948ACE99C3A}"/>
+    <hyperlink ref="M65" r:id="rId35" xr:uid="{D84C709E-B15C-40F4-A650-32980494D114}"/>
+    <hyperlink ref="K80" r:id="rId36" xr:uid="{B833F077-D067-4C43-BCFD-7BDFCCB3C97B}"/>
+    <hyperlink ref="K81" r:id="rId37" xr:uid="{60B83279-8DB5-4AE4-9A51-B0C80DBCF968}"/>
+    <hyperlink ref="M82" r:id="rId38" xr:uid="{CA509B35-F631-4238-B2FB-982300BCFB24}"/>
+    <hyperlink ref="K82" r:id="rId39" xr:uid="{C7BA3291-8B12-40A3-B456-9BB5B1CB86A5}"/>
+    <hyperlink ref="K83" r:id="rId40" xr:uid="{4C75482A-E32B-45A0-A59A-3B351197EDA8}"/>
+    <hyperlink ref="M83" r:id="rId41" xr:uid="{45A17FF3-CC83-4A59-9828-798848FAF545}"/>
+    <hyperlink ref="K85" r:id="rId42" xr:uid="{3A6278DE-F2C4-4D68-A422-2BA972B84D63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>